--- a/02_基本設計/【チーム演習】WBS.xlsx
+++ b/02_基本設計/【チーム演習】WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k250415460\Desktop\KCCS研修関連\チーム演習15\team-project-15\02_基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A316FC2-EE44-4555-B335-F62BD05DA71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3533F01-3527-490A-B098-A70644FABFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -996,8 +996,8 @@
   </sheetPr>
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -2196,10 +2196,12 @@
       <c r="E25" s="21">
         <v>45855</v>
       </c>
-      <c r="F25" s="13"/>
+      <c r="F25" s="21">
+        <v>45855</v>
+      </c>
       <c r="G25" s="13"/>
       <c r="H25" s="27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
@@ -2241,10 +2243,12 @@
       <c r="E26" s="21">
         <v>45855</v>
       </c>
-      <c r="F26" s="13"/>
+      <c r="F26" s="21">
+        <v>45855</v>
+      </c>
       <c r="G26" s="13"/>
       <c r="H26" s="27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>

--- a/02_基本設計/【チーム演習】WBS.xlsx
+++ b/02_基本設計/【チーム演習】WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k250415460\Desktop\KCCS研修関連\チーム演習15\team-project-15\02_基本設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k250415349\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A316FC2-EE44-4555-B335-F62BD05DA71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10058CF7-4506-4BA7-926B-5BB16A5DD076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
   <si>
     <t>年</t>
   </si>
@@ -325,6 +325,36 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ハコザキ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>箱﨑,野原</t>
+    <rPh sb="0" eb="2">
+      <t>ハコザキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ノハラ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>小川,中野</t>
+    <rPh sb="0" eb="2">
+      <t>オガワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナカノ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>朱宮,山口</t>
+    <rPh sb="0" eb="2">
+      <t>シュミヤ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヤマグチ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -996,18 +1026,18 @@
   </sheetPr>
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
-    <col min="3" max="7" width="9.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="31" width="2.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" customWidth="1"/>
+    <col min="2" max="2" width="27.54296875" customWidth="1"/>
+    <col min="3" max="7" width="9.54296875" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" customWidth="1"/>
+    <col min="9" max="9" width="3.453125" customWidth="1"/>
+    <col min="10" max="31" width="2.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" customHeight="1">
@@ -1870,7 +1900,9 @@
       <c r="F18" s="21">
         <v>45855</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="29">
+        <v>1</v>
+      </c>
       <c r="H18" s="27" t="s">
         <v>65</v>
       </c>
@@ -1917,7 +1949,9 @@
       <c r="F19" s="21">
         <v>45855</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="29">
+        <v>1</v>
+      </c>
       <c r="H19" s="27" t="s">
         <v>66</v>
       </c>
@@ -1964,7 +1998,9 @@
       <c r="F20" s="21">
         <v>45855</v>
       </c>
-      <c r="G20" s="13"/>
+      <c r="G20" s="29">
+        <v>1</v>
+      </c>
       <c r="H20" s="27" t="s">
         <v>67</v>
       </c>
@@ -2011,7 +2047,9 @@
       <c r="F21" s="21">
         <v>45855</v>
       </c>
-      <c r="G21" s="13"/>
+      <c r="G21" s="29">
+        <v>1</v>
+      </c>
       <c r="H21" s="13" t="s">
         <v>68</v>
       </c>
@@ -2058,7 +2096,9 @@
       <c r="F22" s="21">
         <v>45855</v>
       </c>
-      <c r="G22" s="13"/>
+      <c r="G22" s="29">
+        <v>1</v>
+      </c>
       <c r="H22" s="13" t="s">
         <v>20</v>
       </c>
@@ -2105,9 +2145,11 @@
       <c r="F23" s="21">
         <v>45855</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="27" t="s">
-        <v>65</v>
+      <c r="G23" s="29">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
@@ -2152,9 +2194,11 @@
       <c r="F24" s="21">
         <v>45855</v>
       </c>
-      <c r="G24" s="13"/>
+      <c r="G24" s="29">
+        <v>1</v>
+      </c>
       <c r="H24" s="27" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -2196,10 +2240,14 @@
       <c r="E25" s="21">
         <v>45855</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="F25" s="21">
+        <v>45855</v>
+      </c>
+      <c r="G25" s="29">
+        <v>1</v>
+      </c>
       <c r="H25" s="27" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
@@ -2241,10 +2289,14 @@
       <c r="E26" s="21">
         <v>45855</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="F26" s="21">
+        <v>45855</v>
+      </c>
+      <c r="G26" s="29">
+        <v>1</v>
+      </c>
       <c r="H26" s="27" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
@@ -2286,10 +2338,14 @@
       <c r="E27" s="21">
         <v>45855</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="F27" s="21">
+        <v>45855</v>
+      </c>
+      <c r="G27" s="29">
+        <v>1</v>
+      </c>
       <c r="H27" s="13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
@@ -2365,9 +2421,7 @@
       <c r="D29" s="20">
         <v>45856</v>
       </c>
-      <c r="E29" s="21">
-        <v>45855</v>
-      </c>
+      <c r="E29" s="27"/>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27" t="s">
@@ -2410,9 +2464,7 @@
       <c r="D30" s="20">
         <v>45856</v>
       </c>
-      <c r="E30" s="21">
-        <v>45855</v>
-      </c>
+      <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13" t="s">

--- a/02_基本設計/【チーム演習】WBS.xlsx
+++ b/02_基本設計/【チーム演習】WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k250415460\Desktop\KCCS研修関連\チーム演習15\team-project-15\02_基本設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k250415349\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3533F01-3527-490A-B098-A70644FABFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10058CF7-4506-4BA7-926B-5BB16A5DD076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
   <si>
     <t>年</t>
   </si>
@@ -325,6 +325,36 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ハコザキ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>箱﨑,野原</t>
+    <rPh sb="0" eb="2">
+      <t>ハコザキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ノハラ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>小川,中野</t>
+    <rPh sb="0" eb="2">
+      <t>オガワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナカノ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>朱宮,山口</t>
+    <rPh sb="0" eb="2">
+      <t>シュミヤ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヤマグチ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -996,18 +1026,18 @@
   </sheetPr>
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
-    <col min="3" max="7" width="9.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="31" width="2.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" customWidth="1"/>
+    <col min="2" max="2" width="27.54296875" customWidth="1"/>
+    <col min="3" max="7" width="9.54296875" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" customWidth="1"/>
+    <col min="9" max="9" width="3.453125" customWidth="1"/>
+    <col min="10" max="31" width="2.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" customHeight="1">
@@ -1870,7 +1900,9 @@
       <c r="F18" s="21">
         <v>45855</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="29">
+        <v>1</v>
+      </c>
       <c r="H18" s="27" t="s">
         <v>65</v>
       </c>
@@ -1917,7 +1949,9 @@
       <c r="F19" s="21">
         <v>45855</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="29">
+        <v>1</v>
+      </c>
       <c r="H19" s="27" t="s">
         <v>66</v>
       </c>
@@ -1964,7 +1998,9 @@
       <c r="F20" s="21">
         <v>45855</v>
       </c>
-      <c r="G20" s="13"/>
+      <c r="G20" s="29">
+        <v>1</v>
+      </c>
       <c r="H20" s="27" t="s">
         <v>67</v>
       </c>
@@ -2011,7 +2047,9 @@
       <c r="F21" s="21">
         <v>45855</v>
       </c>
-      <c r="G21" s="13"/>
+      <c r="G21" s="29">
+        <v>1</v>
+      </c>
       <c r="H21" s="13" t="s">
         <v>68</v>
       </c>
@@ -2058,7 +2096,9 @@
       <c r="F22" s="21">
         <v>45855</v>
       </c>
-      <c r="G22" s="13"/>
+      <c r="G22" s="29">
+        <v>1</v>
+      </c>
       <c r="H22" s="13" t="s">
         <v>20</v>
       </c>
@@ -2105,9 +2145,11 @@
       <c r="F23" s="21">
         <v>45855</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="27" t="s">
-        <v>65</v>
+      <c r="G23" s="29">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
@@ -2152,9 +2194,11 @@
       <c r="F24" s="21">
         <v>45855</v>
       </c>
-      <c r="G24" s="13"/>
+      <c r="G24" s="29">
+        <v>1</v>
+      </c>
       <c r="H24" s="27" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -2199,9 +2243,11 @@
       <c r="F25" s="21">
         <v>45855</v>
       </c>
-      <c r="G25" s="13"/>
+      <c r="G25" s="29">
+        <v>1</v>
+      </c>
       <c r="H25" s="27" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
@@ -2246,9 +2292,11 @@
       <c r="F26" s="21">
         <v>45855</v>
       </c>
-      <c r="G26" s="13"/>
+      <c r="G26" s="29">
+        <v>1</v>
+      </c>
       <c r="H26" s="27" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
@@ -2290,10 +2338,14 @@
       <c r="E27" s="21">
         <v>45855</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="F27" s="21">
+        <v>45855</v>
+      </c>
+      <c r="G27" s="29">
+        <v>1</v>
+      </c>
       <c r="H27" s="13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
@@ -2369,9 +2421,7 @@
       <c r="D29" s="20">
         <v>45856</v>
       </c>
-      <c r="E29" s="21">
-        <v>45855</v>
-      </c>
+      <c r="E29" s="27"/>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27" t="s">
@@ -2414,9 +2464,7 @@
       <c r="D30" s="20">
         <v>45856</v>
       </c>
-      <c r="E30" s="21">
-        <v>45855</v>
-      </c>
+      <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13" t="s">
